--- a/table/Supp tables.xlsx
+++ b/table/Supp tables.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/Library/Mobile Documents/com~apple~CloudDocs/lab/shchiou/ded-dep-ibs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/R_Projects/ded-dep-ibs/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDAE4B01-0225-D142-97F9-6F486BA01CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2591690-0AC9-7C42-9F51-162578AE9CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="740" windowWidth="27800" windowHeight="17260" xr2:uid="{D515C405-0CB0-4046-88E1-6357459E1EB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table of content" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +35,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2-1</t>
+  </si>
+  <si>
+    <t>S2-2</t>
+  </si>
+  <si>
+    <t>S2-3</t>
+  </si>
+  <si>
+    <t>Genome-wide association study (GWAS) summary statistics for one-sample Mendelian randomization (OSMR)</t>
+  </si>
+  <si>
+    <t>Multi-trait analysis of genome-wide association study (MTAG) summary statistics for OSMR</t>
+  </si>
+  <si>
+    <t>S3-1</t>
+  </si>
+  <si>
+    <t>S3-2</t>
+  </si>
+  <si>
+    <t>S3-3</t>
+  </si>
+  <si>
+    <t>Genome-wide association study (GWAS) summary statistics for two-sample Mendelian randomization (TSMR)</t>
+  </si>
+  <si>
+    <t>S4-1</t>
+  </si>
+  <si>
+    <t>S4-2</t>
+  </si>
+  <si>
+    <t>S4-3</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease (IBS) GWAS for OSMR</t>
+  </si>
+  <si>
+    <t>Dry eye disease (DED) GWAS for OSMR</t>
+  </si>
+  <si>
+    <t>Depression GWAS for OSMR</t>
+  </si>
+  <si>
+    <t>IBS MTAG for OSMR</t>
+  </si>
+  <si>
+    <t>DED MTAG for OSMR</t>
+  </si>
+  <si>
+    <t>DEP MTAG for OSMR</t>
+  </si>
+  <si>
+    <t>IBS GWAS for TSMR</t>
+  </si>
+  <si>
+    <t>DED GWAS for TSMR</t>
+  </si>
+  <si>
+    <t>DEP GWAS for TSMR</t>
+  </si>
+  <si>
+    <t>S5-1</t>
+  </si>
+  <si>
+    <t>S5-2</t>
+  </si>
+  <si>
+    <t>S5-3</t>
+  </si>
+  <si>
+    <t>IBS MTAG for TSMR</t>
+  </si>
+  <si>
+    <t>DED MTAG for TSMR</t>
+  </si>
+  <si>
+    <t>DEP MTAG for TSMR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,13 +134,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +520,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E74B-3A73-1040-8B0C-FC19782F7486}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>